--- a/excel/M1-S2/M1-S2-MEFIM.xlsx
+++ b/excel/M1-S2/M1-S2-MEFIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M1-S2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\backendespi\excel\M1-S2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FC9BB2-9CD3-48AD-9132-9F5DD3C8EA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB10B179-5169-46AC-89D1-00BAA73C5F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61050" yWindow="2370" windowWidth="21600" windowHeight="11235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,30 +30,15 @@
     <t>UE 1 – Economie &amp; Gestion</t>
   </si>
   <si>
-    <t>Marketing de l'immobilier</t>
-  </si>
-  <si>
-    <t>Investissement et financiarisation</t>
-  </si>
-  <si>
     <t>Fiscalité</t>
   </si>
   <si>
     <t>UE 2 – Droit</t>
   </si>
   <si>
-    <t>Droit de l'urbanisme et de la construction</t>
-  </si>
-  <si>
-    <t>Déontologie en France et à l'international</t>
-  </si>
-  <si>
     <t>UE 4 – Compétences Professionnalisantes</t>
   </si>
   <si>
-    <t>Immersion professionnelle</t>
-  </si>
-  <si>
     <t>Real Estate English</t>
   </si>
   <si>
@@ -75,18 +60,6 @@
     <t>UE SPE – MEFIM</t>
   </si>
   <si>
-    <t>Marché d'actifs immobiliers</t>
-  </si>
-  <si>
-    <t>Baux commerciaux</t>
-  </si>
-  <si>
-    <t>Evaluation des actifs résidentiels</t>
-  </si>
-  <si>
-    <t>Audit et gestion des immeubles</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -121,6 +94,33 @@
   </si>
   <si>
     <t>CodeApprenant</t>
+  </si>
+  <si>
+    <t>Marketing de l'Immobilier</t>
+  </si>
+  <si>
+    <t>Investissement et Financiarisation</t>
+  </si>
+  <si>
+    <t>Droit de l'Urbanisme et de la Construction</t>
+  </si>
+  <si>
+    <t>Déontologie en France et à l'International</t>
+  </si>
+  <si>
+    <t>Immersion Professionnelle</t>
+  </si>
+  <si>
+    <t>Marché d'Actifs Immobiliers</t>
+  </si>
+  <si>
+    <t>Baux Commerciaux</t>
+  </si>
+  <si>
+    <t>Évaluation des Actifs Résidentiels</t>
+  </si>
+  <si>
+    <t>Audit et Gestion des Immeubles</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,61 +671,61 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -739,97 +739,97 @@
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="AE2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
